--- a/natmiOut/OldD0/LR-pairs_lrc2p/Tgfb2-Tgfbr3.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Tgfb2-Tgfbr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Tgfbr3</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>18.797626920515</v>
+        <v>1.465615333333333</v>
       </c>
       <c r="H2">
-        <v>18.797626920515</v>
+        <v>4.396846</v>
       </c>
       <c r="I2">
-        <v>0.6360648594195518</v>
+        <v>0.04672291954663727</v>
       </c>
       <c r="J2">
-        <v>0.6360648594195518</v>
+        <v>0.04672291954663728</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.14995525642622</v>
+        <v>14.85604233333333</v>
       </c>
       <c r="N2">
-        <v>5.14995525642622</v>
+        <v>44.568127</v>
       </c>
       <c r="O2">
-        <v>0.03490035110929323</v>
+        <v>0.09286934904108346</v>
       </c>
       <c r="P2">
-        <v>0.03490035110929323</v>
+        <v>0.09286934904108346</v>
       </c>
       <c r="Q2">
-        <v>96.80693756764525</v>
+        <v>21.77324343638244</v>
       </c>
       <c r="R2">
-        <v>96.80693756764525</v>
+        <v>195.959190927442</v>
       </c>
       <c r="S2">
-        <v>0.0221988869220256</v>
+        <v>0.004339127123595118</v>
       </c>
       <c r="T2">
-        <v>0.0221988869220256</v>
+        <v>0.004339127123595118</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>18.797626920515</v>
+        <v>1.465615333333333</v>
       </c>
       <c r="H3">
-        <v>18.797626920515</v>
+        <v>4.396846</v>
       </c>
       <c r="I3">
-        <v>0.6360648594195518</v>
+        <v>0.04672291954663727</v>
       </c>
       <c r="J3">
-        <v>0.6360648594195518</v>
+        <v>0.04672291954663728</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>111.686668406859</v>
+        <v>114.2734143333333</v>
       </c>
       <c r="N3">
-        <v>111.686668406859</v>
+        <v>342.820243</v>
       </c>
       <c r="O3">
-        <v>0.7568811276103229</v>
+        <v>0.7143556381787382</v>
       </c>
       <c r="P3">
-        <v>0.7568811276103229</v>
+        <v>0.7143556381787382</v>
       </c>
       <c r="Q3">
-        <v>2099.444324707405</v>
+        <v>167.4808682392865</v>
       </c>
       <c r="R3">
-        <v>2099.444324707405</v>
+        <v>1507.327814153578</v>
       </c>
       <c r="S3">
-        <v>0.4814254880307719</v>
+        <v>0.03337678101031191</v>
       </c>
       <c r="T3">
-        <v>0.4814254880307719</v>
+        <v>0.03337678101031191</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>18.797626920515</v>
+        <v>1.465615333333333</v>
       </c>
       <c r="H4">
-        <v>18.797626920515</v>
+        <v>4.396846</v>
       </c>
       <c r="I4">
-        <v>0.6360648594195518</v>
+        <v>0.04672291954663727</v>
       </c>
       <c r="J4">
-        <v>0.6360648594195518</v>
+        <v>0.04672291954663728</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>30.725079664533</v>
+        <v>30.83766366666667</v>
       </c>
       <c r="N4">
-        <v>30.725079664533</v>
+        <v>92.512991</v>
       </c>
       <c r="O4">
-        <v>0.2082185212803838</v>
+        <v>0.1927750127801784</v>
       </c>
       <c r="P4">
-        <v>0.2082185212803838</v>
+        <v>0.1927750127801784</v>
       </c>
       <c r="Q4">
-        <v>577.5585846369935</v>
+        <v>45.19615271404289</v>
       </c>
       <c r="R4">
-        <v>577.5585846369935</v>
+        <v>406.765374426386</v>
       </c>
       <c r="S4">
-        <v>0.1324404844667542</v>
+        <v>0.009007011412730246</v>
       </c>
       <c r="T4">
-        <v>0.1324404844667542</v>
+        <v>0.009007011412730248</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.75537642834</v>
+        <v>18.88237266666667</v>
       </c>
       <c r="H5">
-        <v>10.75537642834</v>
+        <v>56.64711800000001</v>
       </c>
       <c r="I5">
-        <v>0.3639351405804482</v>
+        <v>0.6019584804341267</v>
       </c>
       <c r="J5">
-        <v>0.3639351405804482</v>
+        <v>0.6019584804341268</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.14995525642622</v>
+        <v>14.85604233333333</v>
       </c>
       <c r="N5">
-        <v>5.14995525642622</v>
+        <v>44.568127</v>
       </c>
       <c r="O5">
-        <v>0.03490035110929323</v>
+        <v>0.09286934904108346</v>
       </c>
       <c r="P5">
-        <v>0.03490035110929323</v>
+        <v>0.09286934904108346</v>
       </c>
       <c r="Q5">
-        <v>55.38970737197225</v>
+        <v>280.5173276897763</v>
       </c>
       <c r="R5">
-        <v>55.38970737197225</v>
+        <v>2524.655949207986</v>
       </c>
       <c r="S5">
-        <v>0.01270146418726763</v>
+        <v>0.05590349222767712</v>
       </c>
       <c r="T5">
-        <v>0.01270146418726763</v>
+        <v>0.05590349222767713</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +767,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.75537642834</v>
+        <v>18.88237266666667</v>
       </c>
       <c r="H6">
-        <v>10.75537642834</v>
+        <v>56.64711800000001</v>
       </c>
       <c r="I6">
-        <v>0.3639351405804482</v>
+        <v>0.6019584804341267</v>
       </c>
       <c r="J6">
-        <v>0.3639351405804482</v>
+        <v>0.6019584804341268</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>111.686668406859</v>
+        <v>114.2734143333333</v>
       </c>
       <c r="N6">
-        <v>111.686668406859</v>
+        <v>342.820243</v>
       </c>
       <c r="O6">
-        <v>0.7568811276103229</v>
+        <v>0.7143556381787382</v>
       </c>
       <c r="P6">
-        <v>0.7568811276103229</v>
+        <v>0.7143556381787382</v>
       </c>
       <c r="Q6">
-        <v>1201.232160742957</v>
+        <v>2157.753195334409</v>
       </c>
       <c r="R6">
-        <v>1201.232160742957</v>
+        <v>19419.77875800968</v>
       </c>
       <c r="S6">
-        <v>0.275455639579551</v>
+        <v>0.430012434447624</v>
       </c>
       <c r="T6">
-        <v>0.275455639579551</v>
+        <v>0.4300124344476241</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +829,247 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>18.88237266666667</v>
+      </c>
+      <c r="H7">
+        <v>56.64711800000001</v>
+      </c>
+      <c r="I7">
+        <v>0.6019584804341267</v>
+      </c>
+      <c r="J7">
+        <v>0.6019584804341268</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>30.83766366666667</v>
+      </c>
+      <c r="N7">
+        <v>92.512991</v>
+      </c>
+      <c r="O7">
+        <v>0.1927750127801784</v>
+      </c>
+      <c r="P7">
+        <v>0.1927750127801784</v>
+      </c>
+      <c r="Q7">
+        <v>582.2882575233265</v>
+      </c>
+      <c r="R7">
+        <v>5240.594317709939</v>
+      </c>
+      <c r="S7">
+        <v>0.1160425537588255</v>
+      </c>
+      <c r="T7">
+        <v>0.1160425537588256</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>11.020243</v>
+      </c>
+      <c r="H8">
+        <v>33.060729</v>
+      </c>
+      <c r="I8">
+        <v>0.351318600019236</v>
+      </c>
+      <c r="J8">
+        <v>0.351318600019236</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>14.85604233333333</v>
+      </c>
+      <c r="N8">
+        <v>44.568127</v>
+      </c>
+      <c r="O8">
+        <v>0.09286934904108346</v>
+      </c>
+      <c r="P8">
+        <v>0.09286934904108346</v>
+      </c>
+      <c r="Q8">
+        <v>163.7171965316203</v>
+      </c>
+      <c r="R8">
+        <v>1473.454768784583</v>
+      </c>
+      <c r="S8">
+        <v>0.03262672968981122</v>
+      </c>
+      <c r="T8">
+        <v>0.03262672968981122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>10.75537642834</v>
-      </c>
-      <c r="H7">
-        <v>10.75537642834</v>
-      </c>
-      <c r="I7">
-        <v>0.3639351405804482</v>
-      </c>
-      <c r="J7">
-        <v>0.3639351405804482</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>30.725079664533</v>
-      </c>
-      <c r="N7">
-        <v>30.725079664533</v>
-      </c>
-      <c r="O7">
-        <v>0.2082185212803838</v>
-      </c>
-      <c r="P7">
-        <v>0.2082185212803838</v>
-      </c>
-      <c r="Q7">
-        <v>330.4597975827869</v>
-      </c>
-      <c r="R7">
-        <v>330.4597975827869</v>
-      </c>
-      <c r="S7">
-        <v>0.0757780368136295</v>
-      </c>
-      <c r="T7">
-        <v>0.0757780368136295</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>11.020243</v>
+      </c>
+      <c r="H9">
+        <v>33.060729</v>
+      </c>
+      <c r="I9">
+        <v>0.351318600019236</v>
+      </c>
+      <c r="J9">
+        <v>0.351318600019236</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>114.2734143333333</v>
+      </c>
+      <c r="N9">
+        <v>342.820243</v>
+      </c>
+      <c r="O9">
+        <v>0.7143556381787382</v>
+      </c>
+      <c r="P9">
+        <v>0.7143556381787382</v>
+      </c>
+      <c r="Q9">
+        <v>1259.320794393017</v>
+      </c>
+      <c r="R9">
+        <v>11333.88714953715</v>
+      </c>
+      <c r="S9">
+        <v>0.2509664227208022</v>
+      </c>
+      <c r="T9">
+        <v>0.2509664227208022</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>11.020243</v>
+      </c>
+      <c r="H10">
+        <v>33.060729</v>
+      </c>
+      <c r="I10">
+        <v>0.351318600019236</v>
+      </c>
+      <c r="J10">
+        <v>0.351318600019236</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>30.83766366666667</v>
+      </c>
+      <c r="N10">
+        <v>92.512991</v>
+      </c>
+      <c r="O10">
+        <v>0.1927750127801784</v>
+      </c>
+      <c r="P10">
+        <v>0.1927750127801784</v>
+      </c>
+      <c r="Q10">
+        <v>339.8385471589377</v>
+      </c>
+      <c r="R10">
+        <v>3058.546924430439</v>
+      </c>
+      <c r="S10">
+        <v>0.0677254476086226</v>
+      </c>
+      <c r="T10">
+        <v>0.0677254476086226</v>
       </c>
     </row>
   </sheetData>
